--- a/published-data/fonds-solidarite/fds-2022-05-11/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-11/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766299</v>
+        <v>766302</v>
       </c>
       <c r="D2" t="n">
         <v>155968</v>
       </c>
       <c r="E2" t="n">
-        <v>1429163955</v>
+        <v>1429167271</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187830</v>
+        <v>187831</v>
       </c>
       <c r="D13" t="n">
         <v>33261</v>
       </c>
       <c r="E13" t="n">
-        <v>1165045094</v>
+        <v>1165047270</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>75189</v>
+        <v>75190</v>
       </c>
       <c r="D54" t="n">
         <v>14914</v>
       </c>
       <c r="E54" t="n">
-        <v>361025801</v>
+        <v>361038094</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3157,13 +3157,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>27098</v>
+        <v>27099</v>
       </c>
       <c r="D67" t="n">
         <v>4262</v>
       </c>
       <c r="E67" t="n">
-        <v>168695232</v>
+        <v>168703518</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3239,13 +3239,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17884</v>
+        <v>17885</v>
       </c>
       <c r="D69" t="n">
         <v>2908</v>
       </c>
       <c r="E69" t="n">
-        <v>103656076</v>
+        <v>103673255</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D79" t="n">
         <v>128</v>
       </c>
       <c r="E79" t="n">
-        <v>20349120</v>
+        <v>20544321</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>88348</v>
+        <v>88349</v>
       </c>
       <c r="D81" t="n">
         <v>16598</v>
       </c>
       <c r="E81" t="n">
-        <v>499609053</v>
+        <v>499611238</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>71248</v>
+        <v>71256</v>
       </c>
       <c r="D88" t="n">
         <v>12436</v>
       </c>
       <c r="E88" t="n">
-        <v>110277738</v>
+        <v>110281502</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18836</v>
+        <v>18840</v>
       </c>
       <c r="D91" t="n">
         <v>3383</v>
       </c>
       <c r="E91" t="n">
-        <v>75024804</v>
+        <v>75078847</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>29539</v>
+        <v>29541</v>
       </c>
       <c r="D96" t="n">
         <v>3814</v>
       </c>
       <c r="E96" t="n">
-        <v>56426825</v>
+        <v>56427433</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4510,13 +4510,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9326</v>
+        <v>9328</v>
       </c>
       <c r="D100" t="n">
         <v>1304</v>
       </c>
       <c r="E100" t="n">
-        <v>23686296</v>
+        <v>23689436</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>319348</v>
+        <v>319349</v>
       </c>
       <c r="D104" t="n">
         <v>67904</v>
       </c>
       <c r="E104" t="n">
-        <v>561269974</v>
+        <v>561270650</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5002,13 +5002,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>145223</v>
+        <v>145224</v>
       </c>
       <c r="D112" t="n">
         <v>27839</v>
       </c>
       <c r="E112" t="n">
-        <v>716124410</v>
+        <v>716129465</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>81797</v>
+        <v>81798</v>
       </c>
       <c r="D115" t="n">
         <v>14448</v>
       </c>
       <c r="E115" t="n">
-        <v>436221192</v>
+        <v>436421192</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306087</v>
+        <v>1306091</v>
       </c>
       <c r="D121" t="n">
         <v>220382</v>
       </c>
       <c r="E121" t="n">
-        <v>2274438059</v>
+        <v>2274443698</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633268</v>
+        <v>633285</v>
       </c>
       <c r="D129" t="n">
         <v>104964</v>
       </c>
       <c r="E129" t="n">
-        <v>3425338848</v>
+        <v>3425593399</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585540</v>
+        <v>585553</v>
       </c>
       <c r="D132" t="n">
         <v>90776</v>
       </c>
       <c r="E132" t="n">
-        <v>3457397721</v>
+        <v>3457723544</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6109,13 +6109,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>76627</v>
+        <v>76633</v>
       </c>
       <c r="D139" t="n">
         <v>17494</v>
       </c>
       <c r="E139" t="n">
-        <v>114124865</v>
+        <v>114126711</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>25048</v>
+        <v>25055</v>
       </c>
       <c r="D144" t="n">
         <v>6170</v>
       </c>
       <c r="E144" t="n">
-        <v>92102558</v>
+        <v>92126085</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6355,13 +6355,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D145" t="n">
         <v>14</v>
       </c>
       <c r="E145" t="n">
-        <v>6189889</v>
+        <v>6360066</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>7433</v>
+        <v>7437</v>
       </c>
       <c r="D146" t="n">
         <v>1667</v>
       </c>
       <c r="E146" t="n">
-        <v>37655642</v>
+        <v>37677476</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6601,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>39913</v>
+        <v>39917</v>
       </c>
       <c r="D151" t="n">
         <v>7155</v>
       </c>
       <c r="E151" t="n">
-        <v>60354039</v>
+        <v>60356678</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18423</v>
+        <v>18426</v>
       </c>
       <c r="D154" t="n">
         <v>3296</v>
       </c>
       <c r="E154" t="n">
-        <v>72343317</v>
+        <v>72350486</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12389</v>
+        <v>12390</v>
       </c>
       <c r="D156" t="n">
         <v>2144</v>
       </c>
       <c r="E156" t="n">
-        <v>39983570</v>
+        <v>39995711</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6929,13 +6929,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="D159" t="n">
         <v>5415</v>
       </c>
       <c r="E159" t="n">
-        <v>101309981</v>
+        <v>101311481</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>236810</v>
+        <v>236812</v>
       </c>
       <c r="D186" t="n">
         <v>46317</v>
       </c>
       <c r="E186" t="n">
-        <v>1189625057</v>
+        <v>1189632759</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8159,13 +8159,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>100463</v>
+        <v>100464</v>
       </c>
       <c r="D189" t="n">
         <v>18353</v>
       </c>
       <c r="E189" t="n">
-        <v>555959912</v>
+        <v>556054990</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -8774,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>265646</v>
+        <v>265648</v>
       </c>
       <c r="D204" t="n">
         <v>49763</v>
       </c>
       <c r="E204" t="n">
-        <v>1271454490</v>
+        <v>1271460352</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>23433</v>
+        <v>23446</v>
       </c>
       <c r="D213" t="n">
         <v>3539</v>
       </c>
       <c r="E213" t="n">
-        <v>87981953</v>
+        <v>88029761</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9225,13 +9225,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>230250</v>
+        <v>230251</v>
       </c>
       <c r="D215" t="n">
         <v>52406</v>
       </c>
       <c r="E215" t="n">
-        <v>408696780</v>
+        <v>408697207</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>283301</v>
+        <v>283304</v>
       </c>
       <c r="D237" t="n">
         <v>49796</v>
       </c>
       <c r="E237" t="n">
-        <v>1438274452</v>
+        <v>1438285118</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10250,13 +10250,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>205891</v>
+        <v>205892</v>
       </c>
       <c r="D240" t="n">
         <v>33983</v>
       </c>
       <c r="E240" t="n">
-        <v>1068181228</v>
+        <v>1068191228</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
